--- a/documentacao/BacklogShosen.xlsx
+++ b/documentacao/BacklogShosen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Área de Trabalho\Shosen\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8F0111-812C-472B-BDA6-CE1F6FB5C60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D75BBC-7499-43DF-BFF3-65717AC6C58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>DESCRIÇÃO</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>CRIAÇÃO DE SITE INSTITUCIONAL EM HTML/CSS/JS FUNCIONAL E USANDO DADOS EM TEMPO REAL</t>
+  </si>
+  <si>
+    <t>Andamento</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,7 +615,9 @@
       <c r="E2" s="2">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -631,7 +636,9 @@
       <c r="E3" s="2">
         <v>13</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -650,7 +657,9 @@
       <c r="E4" s="2">
         <v>13</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -690,7 +699,9 @@
       <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -709,7 +720,9 @@
       <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -728,7 +741,9 @@
       <c r="E8" s="2">
         <v>5</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -747,7 +762,9 @@
       <c r="E9" s="2">
         <v>5</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -766,7 +783,9 @@
       <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -785,7 +804,9 @@
       <c r="E11" s="2">
         <v>5</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -804,7 +825,9 @@
       <c r="E12" s="2">
         <v>6</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -822,7 +845,9 @@
       <c r="E13" s="2">
         <v>13</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -840,7 +865,9 @@
       <c r="E14" s="2">
         <v>12</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -859,7 +886,9 @@
       <c r="E15" s="2">
         <v>12</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -877,7 +906,9 @@
       <c r="E16" s="2">
         <v>12</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -895,7 +926,9 @@
       <c r="E17" s="2">
         <v>13</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
